--- a/src/attributions/attributions_ig_traj_413.xlsx
+++ b/src/attributions/attributions_ig_traj_413.xlsx
@@ -1004,10 +1004,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
@@ -1328,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG2" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY2" t="n">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
@@ -1517,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR2" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0403402996543395</v>
+        <v>-0.001968385414541623</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.04985580237569818</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.009601345171711304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.007011224064368879</v>
+        <v>-0.005224409656906398</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
         <v>-0</v>
@@ -1600,25 +1600,25 @@
         <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1597544633477498</v>
+        <v>-0.02256468383997469</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.2014402603058996</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.08277800560106634</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1516351096052554</v>
+        <v>-0.1409591950190498</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
@@ -1627,22 +1627,22 @@
         <v>-0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02195152662870295</v>
+        <v>0.06226457083909456</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.3225515878898799</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.07495828925923705</v>
+        <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.2051417031285136</v>
+        <v>0.1936562059018293</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1654,106 +1654,106 @@
         <v>-0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01140375294340566</v>
+        <v>0.1256569672631199</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0</v>
+        <v>0.01654592076718948</v>
       </c>
       <c r="AD3" t="n">
         <v>-0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1110280132895202</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.06256233431351962</v>
+        <v>0.02852057140690175</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
         <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1333533904149683</v>
+        <v>-0.01122270474684989</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.2095107021853148</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.03685465578782343</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.02652737366009434</v>
+        <v>-0.02240199534929133</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.262743658995311</v>
+        <v>0.2720604994690448</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0</v>
+        <v>0.5086887755071471</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.06146038524812664</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.009180076595655045</v>
+        <v>0.2897681569735873</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.0142210141095517</v>
+        <v>0.006707303109784852</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>0.01614302899920838</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.009686568877584024</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0129109238852789</v>
+        <v>0.01746049668268285</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
@@ -1762,49 +1762,49 @@
         <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.0184841794344198</v>
+        <v>-0.02463810641377309</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0.05527975444505361</v>
       </c>
       <c r="BN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.0980931492903141</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.03590052662602747</v>
+        <v>0.095074181138812</v>
       </c>
       <c r="BQ3" t="n">
         <v>-0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.254018786041848</v>
+        <v>0.1103085801275268</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.2720376484839259</v>
       </c>
       <c r="BW3" t="n">
         <v>-0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0.04492562083537267</v>
+        <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.02666104096071863</v>
+        <v>0.08238981333375221</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -1816,46 +1816,46 @@
         <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.09004655178548038</v>
+        <v>-0.01249667017906276</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.08886358428826287</v>
       </c>
       <c r="CF3" t="n">
         <v>-0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.02931635387646939</v>
+        <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.009334971284346176</v>
+        <v>-0.01882397194007404</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL3" t="n">
         <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.09489066813625005</v>
+        <v>-0.2674905907389715</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>0.04186574527576895</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0.02740735347577244</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.1154404081351592</v>
+        <v>-0.3411720029101651</v>
       </c>
       <c r="CR3" t="n">
         <v>-0</v>
@@ -1870,76 +1870,76 @@
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.0820103905030659</v>
+        <v>-0.01229695793618024</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.1113019339643332</v>
       </c>
       <c r="CX3" t="n">
         <v>0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.02818259381836866</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.05328884878362337</v>
+        <v>-0.02681977483120006</v>
       </c>
       <c r="DA3" t="n">
         <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
         <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.004647794004398073</v>
+        <v>0.009739825318739747</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.1854270382781383</v>
       </c>
       <c r="DG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.006955658004919431</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.0261485077216245</v>
+        <v>0.2057057952328232</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
         <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.07166611611472229</v>
+        <v>-0.08366432719303336</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0</v>
+        <v>-0.04012056967698925</v>
       </c>
       <c r="DP3" t="n">
         <v>-0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0.06592562342823442</v>
+        <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.02719665819166635</v>
+        <v>-0.1266841955950439</v>
       </c>
       <c r="DS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -1948,22 +1948,22 @@
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.03126051293279328</v>
+        <v>-0.1531659815448239</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0.4623155753266288</v>
       </c>
       <c r="DY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.007300216910858562</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.07433806374798434</v>
+        <v>0.1859947259149793</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
@@ -1978,103 +1978,103 @@
         <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.1554521646007412</v>
+        <v>-0.07475857847145558</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>0.016498635904717</v>
       </c>
       <c r="EH3" t="n">
         <v>-0</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.1098150187794749</v>
+        <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.05707291583734515</v>
+        <v>-0.09523676426757426</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
         <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.05904271146384895</v>
+        <v>0.04540508940128548</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.1390808354527921</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0.1767671104186906</v>
+        <v>-0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.01095180729443944</v>
+        <v>-0.06191492356124875</v>
       </c>
       <c r="ET3" t="n">
         <v>-0</v>
       </c>
       <c r="EU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.0887672040869255</v>
+        <v>-0.06287876621518702</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.1452760364348641</v>
       </c>
       <c r="EZ3" t="n">
         <v>-0</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.01843716635401458</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.03920693939321795</v>
+        <v>-0.03522254198421493</v>
       </c>
       <c r="FC3" t="n">
         <v>-0</v>
       </c>
       <c r="FD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.1595963388248012</v>
+        <v>0.05114552811054355</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0.2511551071580628</v>
       </c>
       <c r="FI3" t="n">
         <v>-0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.07372932032621618</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.08302306201491107</v>
+        <v>-0.006916755160696637</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM3" t="n">
         <v>-0</v>
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.059724626589732</v>
+        <v>0.06295851931425031</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.1240997863579381</v>
       </c>
       <c r="FR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.01618189200631231</v>
+        <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.05297944917305607</v>
+        <v>0.02253181866797217</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
         <v>-0</v>
@@ -2113,22 +2113,22 @@
         <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.1230996232758691</v>
+        <v>-0.002395598890992777</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0.0704891933717661</v>
       </c>
       <c r="GA3" t="n">
         <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.1030398628310472</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE3" t="n">
         <v>0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -2331,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
@@ -2466,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
@@ -2655,10 +2655,10 @@
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
@@ -2711,25 +2711,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.1671323150436123</v>
+        <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0.2755084373985182</v>
       </c>
       <c r="C5" t="n">
         <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>8.873336129340972e-11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02996036448933391</v>
+        <v>0.004615503852537046</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G5" t="n">
-        <v>6.974155323217217e-11</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -2738,160 +2738,160 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3499695543187715</v>
+        <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.5868360302530152</v>
       </c>
       <c r="L5" t="n">
         <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0</v>
+        <v>0.3288262535980082</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2528394975455978</v>
+        <v>0.1423958503427069</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1780222149326656</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2372194338533079</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-0.3677503391974743</v>
       </c>
       <c r="U5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0</v>
+        <v>-0.1519541336980434</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06476526071305831</v>
+        <v>-0.3166216473382756</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.04209194049758944</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.1532479301653645</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0.2418346321764432</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.02313795171585937</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.09340889223319555</v>
+        <v>-0.003525929020509416</v>
       </c>
       <c r="AG5" t="n">
         <v>-0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.03575360936282705</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.07159019935838853</v>
+        <v>-0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0.02555740829013209</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.1721504328072006</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.1704541108848615</v>
+        <v>0.03758107526974153</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.09066326076281538</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>-0</v>
       </c>
       <c r="AT5" t="n">
-        <v>-0.5997018743393288</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-0.7433188817279072</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>-0.01810638496228001</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.1371919187173435</v>
+        <v>-0.5927896547654683</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0.3259107213041136</v>
+        <v>-0</v>
       </c>
       <c r="BA5" t="n">
         <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0190670928935915</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.02150935967797938</v>
       </c>
       <c r="BE5" t="n">
         <v>-0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0</v>
+        <v>0.01568059798126933</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.02177492534705756</v>
+        <v>-0.05366462576512532</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.01962654287848463</v>
+        <v>0</v>
       </c>
       <c r="BJ5" t="n">
         <v>-0</v>
@@ -2900,106 +2900,106 @@
         <v>-0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.1458911907527605</v>
+        <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.02150768870733276</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>0.1363705142907847</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.03452940506944473</v>
+        <v>-0.2291013376330809</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0.008609948757619267</v>
+        <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0.3675894290903513</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0.4660875536955097</v>
       </c>
       <c r="BW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX5" t="n">
-        <v>-0</v>
+        <v>-0.08146895769013662</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.2599339107319047</v>
+        <v>-0.1781855553713345</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0.1075464439364383</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
         <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.1694027604334438</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>0.3233859637075175</v>
       </c>
       <c r="CF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>0.006618227890666397</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.05768695895172567</v>
+        <v>-0.02203248510946776</v>
       </c>
       <c r="CI5" t="n">
         <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0.04846652663932042</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
         <v>-0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.1556115398329256</v>
+        <v>-0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.04150067147852429</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>0.2682356563463946</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.4513944371327501</v>
+        <v>0.2660847225675663</v>
       </c>
       <c r="CR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.2364573596182048</v>
+        <v>0</v>
       </c>
       <c r="CT5" t="n">
         <v>0</v>
@@ -3008,79 +3008,79 @@
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.1655625712997722</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>0.3311801418660321</v>
       </c>
       <c r="CX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>-0.07138669217354814</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.007898526301389309</v>
+        <v>0.02541720628726002</v>
       </c>
       <c r="DA5" t="n">
         <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0.009601260423320908</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0.1126003277477455</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0</v>
+        <v>0.1530820866192553</v>
       </c>
       <c r="DG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>0.2269301489864284</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.1652982652359638</v>
+        <v>0.2279566613673242</v>
       </c>
       <c r="DJ5" t="n">
         <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>-0.05271043331589918</v>
+        <v>0</v>
       </c>
       <c r="DL5" t="n">
         <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.1362004867000796</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>-0</v>
+        <v>0.2077779408554264</v>
       </c>
       <c r="DP5" t="n">
         <v>-0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>0.2833825206014925</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.1173097183070939</v>
+        <v>0.1460552149576673</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.1230762000676093</v>
+        <v>0</v>
       </c>
       <c r="DU5" t="n">
         <v>-0</v>
@@ -3089,25 +3089,25 @@
         <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.0656416313931152</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>-0.2290833836347247</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>0.1372651306140855</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.1773966470240014</v>
+        <v>0.001083017284202152</v>
       </c>
       <c r="EB5" t="n">
         <v>-0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0.06459648200293261</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
         <v>0</v>
@@ -3116,106 +3116,106 @@
         <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.08733233871984132</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>0.2106439362452277</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0</v>
+        <v>0.02007967129617447</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.03906660734400483</v>
+        <v>-0.1349796162212022</v>
       </c>
       <c r="EK5" t="n">
         <v>-0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.1086475291481226</v>
+        <v>0</v>
       </c>
       <c r="EM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.02166972707169601</v>
+        <v>-0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>0.1970417191485818</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>0.3944735334365712</v>
       </c>
       <c r="ES5" t="n">
-        <v>-0.08502552943560873</v>
+        <v>0.2411636660130931</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.2152811487353419</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
         <v>-0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.229517001962017</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>0.3371414460034577</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>0.02307787209716504</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.04844228678688425</v>
+        <v>0.008605454183422361</v>
       </c>
       <c r="FC5" t="n">
         <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0.03672782748645963</v>
+        <v>0</v>
       </c>
       <c r="FE5" t="n">
         <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.2544730621590685</v>
+        <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>0.04723522842567272</v>
       </c>
       <c r="FI5" t="n">
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0</v>
+        <v>-0.1249623288681758</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.1563147463744899</v>
+        <v>0.2646558891784195</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.02783013425755442</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
         <v>-0</v>
@@ -3224,25 +3224,25 @@
         <v>-0</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.1594621629416033</v>
+        <v>-0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0</v>
+        <v>0.03106870278255379</v>
       </c>
       <c r="FR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0</v>
+        <v>-0.1725877971633435</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.03865565755608041</v>
+        <v>-0.1592426080429537</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.05939715437542489</v>
+        <v>0</v>
       </c>
       <c r="FW5" t="n">
         <v>-0</v>
@@ -3251,25 +3251,25 @@
         <v>-0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.02086963442289058</v>
+        <v>0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>0.02798174350393666</v>
       </c>
       <c r="GA5" t="n">
         <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0</v>
+        <v>0.1413421286153513</v>
       </c>
       <c r="GC5" t="n">
         <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.04544750806900859</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
         <v>0</v>
@@ -3280,571 +3280,571 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0.004791584872736829</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0.15147238458152</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.981233357103752e-12</v>
+        <v>2.491478813714784e-12</v>
       </c>
       <c r="F6" t="n">
         <v>-0</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.588568120695986e-05</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0894036444024639</v>
+        <v>-0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>-0.03522391500456128</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0</v>
+        <v>0.1702477300286755</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01871645836620478</v>
+        <v>0.03110439090908552</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01381367296207867</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>-0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08157687625696795</v>
+        <v>-0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>-0.03472796496783143</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.004360306427573402</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.0133629002610944</v>
+        <v>-0.0215063324409394</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.02487452015209002</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
         <v>-0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0427886140846216</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0.02289053098897465</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>-0.01761883551049379</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.00379797507688785</v>
+        <v>-0.004998017648390557</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.02442007997008028</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.005576058301586219</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0.02924229861969762</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>0.02850305182310279</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.006340374052838281</v>
+        <v>0.05254968032910051</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.005341378226970363</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.002672463017252637</v>
+        <v>-0</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0.13051210300003</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0</v>
+        <v>0.05856232367990177</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.01929345780932867</v>
+        <v>-0.02898384274393507</v>
       </c>
       <c r="AY6" t="n">
         <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.006166848092397458</v>
+        <v>-0</v>
       </c>
       <c r="BA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.05204426807784697</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
         <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0</v>
+        <v>0.0002279192633448312</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0</v>
+        <v>0.05398338904037081</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.0020492085913169</v>
+        <v>0.003618680696858391</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.000585160699700095</v>
+        <v>0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.01632201096691656</v>
+        <v>-0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0</v>
+        <v>0.00245574689230443</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>-0</v>
+        <v>-0.002635586644116541</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0.0131502877104421</v>
+        <v>0.03833920150314926</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR6" t="n">
-        <v>-0.0005521835262927315</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0.02016689951729964</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0.02967174625139852</v>
       </c>
       <c r="BW6" t="n">
         <v>-0</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0</v>
+        <v>0.008913097066593392</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.01038671520617152</v>
+        <v>-0.01683060034842811</v>
       </c>
       <c r="BZ6" t="n">
         <v>-0</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0.01510627935247592</v>
+        <v>-0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.04660174434354831</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
         <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>0.005149329644180219</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>-0.02933817686649866</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.007168140984174135</v>
+        <v>0.01477072577783706</v>
       </c>
       <c r="CI6" t="n">
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>-0.003782298247814249</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
         <v>-0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0.002658727957433818</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>0.008133840487729131</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0</v>
+        <v>0.01701954629334323</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.007295757845819401</v>
+        <v>0.03191291654470418</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS6" t="n">
-        <v>-0.01134459199809726</v>
+        <v>0</v>
       </c>
       <c r="CT6" t="n">
         <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.0253319709909117</v>
+        <v>-0</v>
       </c>
       <c r="CV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0</v>
+        <v>0.01142649966227726</v>
       </c>
       <c r="CX6" t="n">
         <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>-0.0252512767958818</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.008747950852133772</v>
+        <v>0.0126218993527468</v>
       </c>
       <c r="DA6" t="n">
         <v>-0</v>
       </c>
       <c r="DB6" t="n">
-        <v>-0.001164098736018268</v>
+        <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0.01002900061740584</v>
+        <v>-0</v>
       </c>
       <c r="DE6" t="n">
         <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>0.02064010789141205</v>
       </c>
       <c r="DG6" t="n">
         <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0</v>
+        <v>-0.007691013775980688</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.01663721570285241</v>
+        <v>0.05861898884474966</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.0353829012735551</v>
+        <v>-0</v>
       </c>
       <c r="DL6" t="n">
         <v>-0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0.01073153461121057</v>
+        <v>-0</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0</v>
+        <v>-0.02592726038698054</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0</v>
+        <v>0.05209301619502156</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.01674658129552407</v>
+        <v>-0.03053687099055896</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT6" t="n">
-        <v>-0.001744915225943877</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.01230998020486659</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>0.0322040346348416</v>
       </c>
       <c r="DY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>-0</v>
+        <v>-0.0223141845877106</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.01942738863282532</v>
+        <v>0.0439441563049665</v>
       </c>
       <c r="EB6" t="n">
         <v>0</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0.02153478006523216</v>
+        <v>-0</v>
       </c>
       <c r="ED6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.004111980868405294</v>
+        <v>-0</v>
       </c>
       <c r="EF6" t="n">
         <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>0.0189075969553848</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>0.04750316691917007</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.02052355022785304</v>
+        <v>0.000704345703417866</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.006049645911984956</v>
+        <v>0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.008507003557021693</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.008361963987684068</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0</v>
+        <v>-0.01013886358551686</v>
       </c>
       <c r="ES6" t="n">
-        <v>-0.03569330964716771</v>
+        <v>-0.00666797792468758</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0.01939114719620591</v>
+        <v>-0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0.009329956325499008</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
         <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>0.01492722725187964</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>-0.01793699850789199</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.01452071188186618</v>
+        <v>0.008219319835024969</v>
       </c>
       <c r="FC6" t="n">
         <v>0</v>
       </c>
       <c r="FD6" t="n">
-        <v>-0.00144511686179254</v>
+        <v>-0</v>
       </c>
       <c r="FE6" t="n">
         <v>-0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0.01062172968869251</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
         <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>0.01599415062009245</v>
       </c>
       <c r="FI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0</v>
+        <v>-0.02520559513467901</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.02167764022391592</v>
+        <v>-0.01019185353838987</v>
       </c>
       <c r="FL6" t="n">
         <v>0</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.002488947449063159</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
         <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0.003328438519126011</v>
+        <v>-0</v>
       </c>
       <c r="FP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0</v>
+        <v>-0.02456791106895716</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>-0</v>
+        <v>-0.05282294915360352</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.01019966682842639</v>
+        <v>0.007952437063535621</v>
       </c>
       <c r="FU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV6" t="n">
-        <v>-0.01530634577377116</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0.0340162690239515</v>
+        <v>-0</v>
       </c>
       <c r="FY6" t="n">
         <v>0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.03077778082084661</v>
       </c>
       <c r="GA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>0.04224813253120288</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0.00925386092484886</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
         <v>-0</v>
       </c>
       <c r="GG6" t="n">
-        <v>-0.0291965692304595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
